--- a/StructureDefinition-Encounter-adultcheck.xlsx
+++ b/StructureDefinition-Encounter-adultcheck.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$119</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4304" uniqueCount="558">
   <si>
     <t>Property</t>
   </si>
@@ -572,28 +572,28 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber</t>
-  </si>
-  <si>
-    <t>hospitalNumber</t>
-  </si>
-  <si>
-    <t>適用所屬機構之醫事機構代碼</t>
-  </si>
-  <si>
-    <t>適用於所屬機構之醫事機構代碼</t>
+    <t>Encounter.identifier:medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>medicalrecordNumber</t>
+  </si>
+  <si>
+    <t>適用該就醫紀錄之就診序號</t>
+  </si>
+  <si>
+    <t>適用於該就醫紀錄之就診序號</t>
   </si>
   <si>
     <t>病人幾乎總是被指定一個特定的數值型的唯一識別碼（identifier）</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:hospitalNumber.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:hospitalNumber.use</t>
+    <t>Encounter.identifier:medicalrecordNumber.id</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:medicalrecordNumber.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:medicalrecordNumber.use</t>
   </si>
   <si>
     <t>official</t>
@@ -602,7 +602,7 @@
     <t>如果知道，請說明此識別碼的目的；應填入[IdentifierUse](http://hl7.org/fhir/R4/valueset-identifier-use.html)代碼表中的其中一個代碼。</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type</t>
+    <t>Encounter.identifier:medicalrecordNumber.type</t>
   </si>
   <si>
     <t>身份識別碼（identifier）的型別說明</t>
@@ -617,7 +617,7 @@
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/identifier-type-tw</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.id</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.id</t>
   </si>
   <si>
     <t>Encounter.identifier.type.id</t>
@@ -626,13 +626,13 @@
     <t>resource中資料項目的唯一ID（用於內部參照），這可以是任何不含空格的字串。</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.extension</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.extension</t>
   </si>
   <si>
     <t>Encounter.identifier.type.extension</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding</t>
@@ -663,19 +663,19 @@
     <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding.id</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding.id</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding.extension</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding.extension</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding.extension</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding.system</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding.system</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding.system</t>
@@ -705,7 +705,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding.version</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding.version</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding.version</t>
@@ -729,7 +729,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding.code</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding.code</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding.code</t>
@@ -744,7 +744,7 @@
     <t>需要參照系統中的一個特定代碼</t>
   </si>
   <si>
-    <t>PRN</t>
+    <t>MRT</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -756,7 +756,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding.display</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding.display</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding.display</t>
@@ -780,7 +780,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.coding.userSelected</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.coding.userSelected</t>
   </si>
   <si>
     <t>Encounter.identifier.type.coding.userSelected</t>
@@ -811,7 +811,7 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.type.text</t>
+    <t>Encounter.identifier:medicalrecordNumber.type.text</t>
   </si>
   <si>
     <t>Encounter.identifier.type.text</t>
@@ -838,105 +838,26 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.system</t>
-  </si>
-  <si>
-    <t>身份識別碼（identifier）的命名空間（namespace）
-例如：醫事機構代碼='https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw'</t>
-  </si>
-  <si>
-    <t>https://twcore.mohw.gov.tw/tsfhir/CodeSystem/organization-identifier-tw</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:hospitalNumber.value</t>
+    <t>Encounter.identifier:medicalrecordNumber.system</t>
+  </si>
+  <si>
+    <t>就診序號發號者/機構/單位</t>
+  </si>
+  <si>
+    <t>Encounter.identifier:medicalrecordNumber.value</t>
   </si>
   <si>
     <t>唯一值。
-例如：所屬機構之醫事機構代碼為0123456789</t>
+例如：就診序號為0123456789</t>
   </si>
   <si>
     <t>如果此值是一個完整的URI，那麼此系統 **必須（SHALL）** 是urn:ietf:rfc:3986。此值的主要目的是為了可運算的對應。因此，為了比較的目的，它可能會被正規化（例如：去除不重要的空白、破折號等）。一個為人顯示的格式化的值可以使用[Rendered Value](http://hl7.org/fhir/R4/extension-rendered-value.html)擴充來傳達。除非對Identifier.system的了解使處理者確信不區分大小寫的處理是安全的，否則Identifier.value應被視為區分大小寫。</t>
   </si>
   <si>
-    <t>Encounter.identifier:hospitalNumber.period</t>
+    <t>Encounter.identifier:medicalrecordNumber.period</t>
   </si>
   <si>
     <t>此身份識別碼（identifier）的使用效期</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:hospitalNumber.assigner</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>medicalrecordNumber</t>
-  </si>
-  <si>
-    <t>適用該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>適用於該就醫紀錄之就診序號</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.use</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding.id</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding.system</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding.version</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding.code</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding.display</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.type.text</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.system</t>
-  </si>
-  <si>
-    <t>使用個醫院/機構院內代碼</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.value</t>
-  </si>
-  <si>
-    <t>Encounter.identifier:medicalrecordNumber.period</t>
   </si>
   <si>
     <t>Encounter.identifier:medicalrecordNumber.assigner</t>
@@ -2129,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN139"/>
+  <dimension ref="A1:AN119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6106,7 +6027,7 @@
         <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>150</v>
@@ -6174,7 +6095,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>154</v>
@@ -6203,13 +6124,13 @@
         <v>112</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>156</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6288,7 +6209,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>162</v>
@@ -6317,7 +6238,7 @@
         <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>165</v>
@@ -6400,7 +6321,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>169</v>
@@ -6514,14 +6435,12 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>38</v>
       </c>
@@ -6536,24 +6455,24 @@
         <v>47</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>38</v>
       </c>
@@ -6562,7 +6481,7 @@
         <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>38</v>
@@ -6577,13 +6496,13 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6601,13 +6520,13 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
@@ -6616,24 +6535,24 @@
         <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>110</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6644,10 +6563,10 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>38</v>
@@ -6656,15 +6575,17 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6713,19 +6634,19 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6742,10 +6663,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6756,7 +6677,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6768,17 +6689,15 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6815,37 +6734,37 @@
         <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6856,10 +6775,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6870,32 +6789,30 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6904,7 +6821,7 @@
         <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>38</v>
@@ -6919,13 +6836,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6943,39 +6860,39 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6983,34 +6900,34 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="I43" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7035,13 +6952,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -7059,39 +6976,39 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7099,7 +7016,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>46</v>
@@ -7114,13 +7031,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7147,13 +7064,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7171,10 +7088,10 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>46</v>
@@ -7183,7 +7100,7 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -7200,10 +7117,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7211,10 +7128,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7226,13 +7143,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7271,37 +7188,37 @@
         <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -7312,10 +7229,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7323,10 +7240,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>47</v>
@@ -7341,17 +7258,15 @@
         <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="O46" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7375,13 +7290,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7399,13 +7314,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>142</v>
@@ -7428,10 +7343,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7540,10 +7455,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7654,10 +7569,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7665,7 +7580,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>46</v>
@@ -7702,7 +7617,7 @@
         <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>38</v>
@@ -7770,10 +7685,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7884,10 +7799,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7895,7 +7810,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>46</v>
@@ -7930,7 +7845,7 @@
         <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>38</v>
@@ -7998,10 +7913,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8044,7 +7959,7 @@
         <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>38</v>
@@ -8112,10 +8027,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8228,10 +8143,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8242,32 +8157,28 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
       </c>
@@ -8315,13 +8226,13 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
@@ -8333,21 +8244,21 @@
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>145</v>
+        <v>318</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8355,35 +8266,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>38</v>
       </c>
@@ -8395,7 +8302,7 @@
         <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>38</v>
@@ -8431,7 +8338,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8443,27 +8350,27 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8471,31 +8378,31 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>269</v>
+        <v>92</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>270</v>
+        <v>118</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8509,7 +8416,7 @@
         <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>38</v>
@@ -8545,39 +8452,39 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8588,28 +8495,32 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
@@ -8657,39 +8568,39 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>169</v>
+        <v>321</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8697,7 +8608,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>46</v>
@@ -8709,20 +8620,18 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8747,13 +8656,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8771,10 +8680,10 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>46</v>
@@ -8789,21 +8698,21 @@
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8817,26 +8726,24 @@
         <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8846,7 +8753,7 @@
         <v>38</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>38</v>
@@ -8861,13 +8768,13 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
@@ -8885,7 +8792,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>46</v>
@@ -8900,24 +8807,24 @@
         <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>309</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8928,10 +8835,10 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>38</v>
@@ -8940,16 +8847,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8975,13 +8882,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>38</v>
+        <v>334</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8999,7 +8906,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9008,7 +8915,7 @@
         <v>37</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>58</v>
@@ -9017,21 +8924,21 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9039,13 +8946,13 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>38</v>
@@ -9054,15 +8961,17 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -9075,7 +8984,7 @@
         <v>38</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>38</v>
@@ -9087,13 +8996,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>38</v>
+        <v>341</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -9111,7 +9020,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9120,30 +9029,30 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9154,7 +9063,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -9166,17 +9075,15 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9225,25 +9132,25 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9254,10 +9161,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9274,26 +9181,22 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>38</v>
       </c>
@@ -9329,19 +9232,19 @@
         <v>38</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9370,10 +9273,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9381,13 +9284,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -9396,16 +9299,20 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
       </c>
@@ -9429,13 +9336,13 @@
         <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>38</v>
@@ -9453,16 +9360,16 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>322</v>
+        <v>204</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>58</v>
@@ -9471,21 +9378,21 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9493,7 +9400,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9508,13 +9415,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9565,10 +9472,10 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>324</v>
+        <v>115</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9577,7 +9484,7 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9594,10 +9501,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9605,13 +9512,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9620,16 +9527,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
+        <v>92</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>328</v>
+        <v>93</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9655,63 +9562,63 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>326</v>
+        <v>121</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9725,25 +9632,29 @@
         <v>46</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
       </c>
@@ -9752,7 +9663,7 @@
         <v>38</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>38</v>
@@ -9791,7 +9702,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9803,27 +9714,27 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9834,7 +9745,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9843,19 +9754,19 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9893,51 +9804,51 @@
         <v>38</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9960,19 +9871,17 @@
         <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9982,7 +9891,7 @@
         <v>38</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>38</v>
@@ -10021,7 +9930,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -10039,21 +9948,21 @@
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10067,7 +9976,7 @@
         <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -10079,15 +9988,15 @@
         <v>112</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
@@ -10096,7 +10005,7 @@
         <v>38</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>38</v>
@@ -10135,7 +10044,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -10153,21 +10062,21 @@
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10181,7 +10090,7 @@
         <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>38</v>
@@ -10190,17 +10099,19 @@
         <v>47</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O71" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10210,7 +10121,7 @@
         <v>38</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>38</v>
@@ -10249,7 +10160,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -10267,21 +10178,21 @@
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10307,14 +10218,16 @@
         <v>112</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10324,7 +10237,7 @@
         <v>38</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>38</v>
@@ -10363,7 +10276,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -10381,21 +10294,21 @@
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10415,23 +10328,21 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>38</v>
       </c>
@@ -10455,13 +10366,13 @@
         <v>38</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>38</v>
+        <v>359</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>38</v>
@@ -10479,7 +10390,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -10488,7 +10399,7 @@
         <v>46</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>58</v>
@@ -10497,52 +10408,54 @@
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>255</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10591,13 +10504,13 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
@@ -10606,24 +10519,24 @@
         <v>58</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>116</v>
+        <v>366</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10634,7 +10547,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10643,16 +10556,16 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>112</v>
+        <v>370</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>113</v>
+        <v>371</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10703,43 +10616,43 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>38</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10758,17 +10671,15 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>91</v>
+        <v>378</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>92</v>
+        <v>379</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -10817,7 +10728,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
@@ -10829,13 +10740,13 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>38</v>
+        <v>381</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10846,10 +10757,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10863,29 +10774,25 @@
         <v>37</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>38</v>
       </c>
@@ -10933,7 +10840,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
@@ -10945,27 +10852,27 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>38</v>
+        <v>386</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>38</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10973,7 +10880,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>46</v>
@@ -10988,13 +10895,13 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>348</v>
+        <v>112</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11021,13 +10928,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -11045,10 +10952,10 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>347</v>
+        <v>115</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>46</v>
@@ -11057,7 +10964,7 @@
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
@@ -11074,10 +10981,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11085,10 +10992,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -11100,15 +11007,17 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>353</v>
+        <v>92</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -11157,25 +11066,25 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>352</v>
+        <v>121</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
@@ -11186,10 +11095,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11206,24 +11115,26 @@
         <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
       </c>
@@ -11247,13 +11158,13 @@
         <v>38</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>38</v>
@@ -11271,7 +11182,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
@@ -11280,30 +11191,30 @@
         <v>37</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11311,10 +11222,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>47</v>
@@ -11329,13 +11240,13 @@
         <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11349,7 +11260,7 @@
         <v>38</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>365</v>
+        <v>38</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>38</v>
@@ -11364,10 +11275,10 @@
         <v>138</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>38</v>
@@ -11385,13 +11296,13 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>142</v>
@@ -11414,10 +11325,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11431,7 +11342,7 @@
         <v>46</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>38</v>
@@ -11440,13 +11351,13 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>113</v>
+        <v>398</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11497,7 +11408,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>115</v>
+        <v>397</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -11509,27 +11420,27 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>38</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11540,25 +11451,25 @@
         <v>36</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>91</v>
+        <v>403</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>92</v>
+        <v>404</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>92</v>
+        <v>404</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11597,51 +11508,51 @@
         <v>38</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>121</v>
+        <v>402</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>38</v>
+        <v>405</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>38</v>
+        <v>406</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>38</v>
+        <v>407</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>38</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11655,29 +11566,25 @@
         <v>37</v>
       </c>
       <c r="H84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J84" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="I84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="K84" t="s" s="2">
-        <v>199</v>
+        <v>410</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>200</v>
+        <v>411</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>38</v>
       </c>
@@ -11725,7 +11632,7 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
@@ -11734,30 +11641,30 @@
         <v>37</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>38</v>
+        <v>381</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11771,7 +11678,7 @@
         <v>46</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>38</v>
@@ -11780,15 +11687,17 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>113</v>
+        <v>415</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>38</v>
@@ -11837,7 +11746,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
@@ -11849,27 +11758,27 @@
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>116</v>
+        <v>418</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>38</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11880,7 +11789,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>38</v>
@@ -11892,16 +11801,16 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>91</v>
+        <v>422</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>92</v>
+        <v>423</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>93</v>
+        <v>424</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>94</v>
+        <v>425</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11939,62 +11848,62 @@
         <v>38</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>38</v>
+        <v>426</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>38</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>47</v>
@@ -12003,23 +11912,21 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>213</v>
+        <v>430</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>214</v>
+        <v>431</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>38</v>
       </c>
@@ -12028,7 +11935,7 @@
         <v>38</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>38</v>
@@ -12043,13 +11950,13 @@
         <v>38</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>38</v>
@@ -12067,16 +11974,16 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>218</v>
+        <v>428</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>58</v>
@@ -12085,32 +11992,32 @@
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>220</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>38</v>
@@ -12122,16 +12029,16 @@
         <v>47</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>112</v>
+        <v>436</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>223</v>
+        <v>437</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>224</v>
+        <v>431</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>225</v>
+        <v>432</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12181,13 +12088,13 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>226</v>
+        <v>435</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>38</v>
@@ -12196,24 +12103,24 @@
         <v>58</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>227</v>
+        <v>439</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>228</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12224,10 +12131,10 @@
         <v>36</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>38</v>
@@ -12236,18 +12143,16 @@
         <v>47</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>231</v>
+        <v>443</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>232</v>
+        <v>443</v>
       </c>
       <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>38</v>
       </c>
@@ -12256,7 +12161,7 @@
         <v>38</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>38</v>
@@ -12295,13 +12200,13 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>235</v>
+        <v>442</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>38</v>
@@ -12313,21 +12218,21 @@
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12341,27 +12246,25 @@
         <v>46</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>38</v>
       </c>
@@ -12370,7 +12273,7 @@
         <v>38</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>379</v>
+        <v>38</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>38</v>
@@ -12409,7 +12312,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -12421,27 +12324,27 @@
         <v>38</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12452,7 +12355,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>38</v>
@@ -12461,23 +12364,21 @@
         <v>38</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>38</v>
       </c>
@@ -12525,39 +12426,39 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12568,31 +12469,31 @@
         <v>36</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>38</v>
@@ -12641,47 +12542,47 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>46</v>
@@ -12693,19 +12594,19 @@
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12731,13 +12632,13 @@
         <v>38</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>384</v>
+        <v>38</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>385</v>
+        <v>38</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>38</v>
@@ -12755,71 +12656,71 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>38</v>
+        <v>453</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>143</v>
+        <v>454</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>144</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12845,13 +12746,13 @@
         <v>38</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>38</v>
+        <v>458</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>38</v>
+        <v>459</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>38</v>
@@ -12869,7 +12770,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>36</v>
@@ -12878,30 +12779,30 @@
         <v>46</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>393</v>
+        <v>38</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>394</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12912,7 +12813,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>38</v>
@@ -12921,16 +12822,16 @@
         <v>38</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12981,13 +12882,13 @@
         <v>38</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>38</v>
@@ -12996,28 +12897,28 @@
         <v>58</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>116</v>
+        <v>463</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>400</v>
+        <v>38</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>401</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13036,15 +12937,17 @@
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>38</v>
@@ -13093,7 +12996,7 @@
         <v>38</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>36</v>
@@ -13108,10 +13011,10 @@
         <v>58</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>407</v>
+        <v>38</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>38</v>
@@ -13122,10 +13025,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13136,7 +13039,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>47</v>
@@ -13145,18 +13048,20 @@
         <v>38</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>38</v>
@@ -13205,13 +13110,13 @@
         <v>38</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>38</v>
@@ -13220,24 +13125,24 @@
         <v>58</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>414</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13346,10 +13251,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13460,10 +13365,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13492,13 +13397,13 @@
         <v>98</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>118</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>38</v>
@@ -13547,7 +13452,7 @@
         <v>38</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>36</v>
@@ -13576,10 +13481,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13590,10 +13495,10 @@
         <v>36</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>38</v>
@@ -13602,17 +13507,15 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>38</v>
@@ -13637,13 +13540,13 @@
         <v>38</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>38</v>
@@ -13661,16 +13564,16 @@
         <v>38</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>58</v>
@@ -13679,21 +13582,21 @@
         <v>38</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>144</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13707,7 +13610,7 @@
         <v>46</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>38</v>
@@ -13716,13 +13619,13 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>163</v>
+        <v>480</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13773,7 +13676,7 @@
         <v>38</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>36</v>
@@ -13791,21 +13694,21 @@
         <v>38</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>427</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13819,24 +13722,26 @@
         <v>46</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>429</v>
+        <v>133</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>38</v>
@@ -13861,13 +13766,13 @@
         <v>38</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>38</v>
+        <v>485</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>38</v>
+        <v>486</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>38</v>
@@ -13885,7 +13790,7 @@
         <v>38</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>36</v>
@@ -13894,30 +13799,30 @@
         <v>46</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>431</v>
+        <v>38</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>432</v>
+        <v>143</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>434</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13928,7 +13833,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>38</v>
@@ -13937,18 +13842,20 @@
         <v>38</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>436</v>
+        <v>133</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>38</v>
@@ -13973,13 +13880,13 @@
         <v>38</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>38</v>
+        <v>490</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>38</v>
+        <v>491</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>38</v>
@@ -13997,39 +13904,39 @@
         <v>38</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>407</v>
+        <v>38</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>438</v>
+        <v>143</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>439</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14040,10 +13947,10 @@
         <v>36</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>38</v>
@@ -14052,18 +13959,20 @@
         <v>38</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>38</v>
       </c>
@@ -14087,13 +13996,13 @@
         <v>38</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>38</v>
+        <v>496</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>38</v>
+        <v>497</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>38</v>
@@ -14111,39 +14020,39 @@
         <v>38</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>443</v>
+        <v>38</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>444</v>
+        <v>143</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>445</v>
+        <v>38</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>446</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14154,7 +14063,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>38</v>
@@ -14166,16 +14075,16 @@
         <v>38</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>448</v>
+        <v>133</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14201,13 +14110,13 @@
         <v>38</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>38</v>
+        <v>501</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>38</v>
@@ -14225,43 +14134,43 @@
         <v>38</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>443</v>
+        <v>38</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>452</v>
+        <v>143</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>453</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14271,7 +14180,7 @@
         <v>37</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>38</v>
@@ -14283,13 +14192,13 @@
         <v>133</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14318,10 +14227,10 @@
         <v>71</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>38</v>
@@ -14339,7 +14248,7 @@
         <v>38</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>36</v>
@@ -14368,21 +14277,21 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>455</v>
+        <v>38</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>38</v>
@@ -14391,20 +14300,18 @@
         <v>38</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>38</v>
@@ -14453,13 +14360,13 @@
         <v>38</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>38</v>
@@ -14468,24 +14375,24 @@
         <v>58</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>464</v>
+        <v>38</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>466</v>
+        <v>38</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>467</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14496,27 +14403,29 @@
         <v>36</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>38</v>
@@ -14541,13 +14450,13 @@
         <v>38</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>38</v>
+        <v>514</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>38</v>
+        <v>515</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>38</v>
@@ -14565,16 +14474,16 @@
         <v>38</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>58</v>
@@ -14583,21 +14492,21 @@
         <v>38</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>470</v>
+        <v>143</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14608,10 +14517,10 @@
         <v>36</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>38</v>
@@ -14620,15 +14529,17 @@
         <v>38</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>113</v>
+        <v>517</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>38</v>
@@ -14677,25 +14588,25 @@
         <v>38</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>115</v>
+        <v>516</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>116</v>
+        <v>520</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>38</v>
@@ -14706,10 +14617,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14720,7 +14631,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>38</v>
@@ -14732,17 +14643,15 @@
         <v>38</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>38</v>
@@ -14791,25 +14700,25 @@
         <v>38</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>38</v>
@@ -14820,10 +14729,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14840,26 +14749,24 @@
         <v>38</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>319</v>
+        <v>93</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="O112" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>38</v>
       </c>
@@ -14907,7 +14814,7 @@
         <v>38</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>36</v>
@@ -14936,44 +14843,46 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>475</v>
+        <v>38</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>476</v>
+        <v>91</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>477</v>
+        <v>98</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>478</v>
+        <v>293</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>38</v>
       </c>
@@ -15021,39 +14930,39 @@
         <v>38</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>474</v>
+        <v>295</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>479</v>
+        <v>38</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>480</v>
+        <v>38</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>466</v>
+        <v>38</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>481</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15061,13 +14970,13 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>38</v>
@@ -15076,17 +14985,15 @@
         <v>38</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>38</v>
@@ -15111,13 +15018,13 @@
         <v>38</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>484</v>
+        <v>38</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>485</v>
+        <v>38</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>38</v>
@@ -15135,39 +15042,39 @@
         <v>38</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>143</v>
+        <v>406</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>38</v>
+        <v>528</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>144</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15190,15 +15097,17 @@
         <v>38</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>487</v>
+        <v>66</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>38</v>
@@ -15223,13 +15132,13 @@
         <v>38</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>38</v>
+        <v>534</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>38</v>
@@ -15247,7 +15156,7 @@
         <v>38</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>36</v>
@@ -15265,7 +15174,7 @@
         <v>38</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>38</v>
@@ -15276,10 +15185,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15290,7 +15199,7 @@
         <v>36</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>38</v>
@@ -15302,16 +15211,16 @@
         <v>38</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>491</v>
+        <v>133</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15337,13 +15246,13 @@
         <v>38</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>38</v>
+        <v>541</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>38</v>
+        <v>542</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>38</v>
@@ -15361,16 +15270,16 @@
         <v>38</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>58</v>
@@ -15379,21 +15288,21 @@
         <v>38</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>494</v>
+        <v>143</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15407,7 +15316,7 @@
         <v>46</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>38</v>
@@ -15416,17 +15325,15 @@
         <v>38</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>38</v>
@@ -15475,7 +15382,7 @@
         <v>38</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>36</v>
@@ -15493,7 +15400,7 @@
         <v>38</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>38</v>
@@ -15504,10 +15411,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15515,13 +15422,13 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>38</v>
@@ -15530,13 +15437,13 @@
         <v>38</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>112</v>
+        <v>546</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>113</v>
+        <v>547</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>114</v>
+        <v>548</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15587,7 +15494,7 @@
         <v>38</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>115</v>
+        <v>545</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>36</v>
@@ -15599,27 +15506,27 @@
         <v>38</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>38</v>
+        <v>405</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>116</v>
+        <v>549</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>38</v>
+        <v>550</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15630,7 +15537,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>38</v>
@@ -15642,16 +15549,16 @@
         <v>38</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>91</v>
+        <v>552</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>92</v>
+        <v>553</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>93</v>
+        <v>554</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>118</v>
+        <v>555</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -15701,2307 +15608,35 @@
         <v>38</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>121</v>
+        <v>551</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>38</v>
+        <v>556</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>38</v>
+        <v>557</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O129" s="2"/>
-      <c r="P129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O136" s="2"/>
-      <c r="P136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN139" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN139">
+  <autoFilter ref="A1:AN119">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18011,7 +15646,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI138">
+  <conditionalFormatting sqref="A2:AI118">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
